--- a/Code/Results/Cases/Case_0_189/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_189/res_line/loading_percent.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.01336076315606</v>
+        <v>10.89005729301824</v>
       </c>
       <c r="D2">
-        <v>5.067044972521833</v>
+        <v>4.856621484747805</v>
       </c>
       <c r="E2">
-        <v>10.6744665480222</v>
+        <v>12.93840400648249</v>
       </c>
       <c r="F2">
-        <v>14.31949448291633</v>
+        <v>22.35142742984598</v>
       </c>
       <c r="G2">
-        <v>16.13404718557996</v>
+        <v>25.3678587216665</v>
       </c>
       <c r="H2">
-        <v>7.317833265542999</v>
+        <v>13.55709804453758</v>
       </c>
       <c r="I2">
-        <v>12.90196136285251</v>
+        <v>21.52439908708962</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>24.88741611008388</v>
+        <v>16.35297958215924</v>
       </c>
       <c r="L2">
-        <v>6.196149641424433</v>
+        <v>9.373082914176443</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.22702705225564</v>
+        <v>20.16220226274447</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.499734325989778</v>
+        <v>10.78373310762257</v>
       </c>
       <c r="D3">
-        <v>4.851878377589176</v>
+        <v>4.780193353632171</v>
       </c>
       <c r="E3">
-        <v>10.2086515788382</v>
+        <v>12.87258585253256</v>
       </c>
       <c r="F3">
-        <v>14.17482235005896</v>
+        <v>22.47003912750792</v>
       </c>
       <c r="G3">
-        <v>16.03368201507068</v>
+        <v>25.57509025088033</v>
       </c>
       <c r="H3">
-        <v>7.458391899023321</v>
+        <v>13.63197499343617</v>
       </c>
       <c r="I3">
-        <v>12.88849588924268</v>
+        <v>21.63466694182044</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>23.30531098940976</v>
+        <v>15.58601673378424</v>
       </c>
       <c r="L3">
-        <v>6.060948474002212</v>
+        <v>9.374610754696484</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.39436771368264</v>
+        <v>20.29981979092949</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.173854943385178</v>
+        <v>10.71985773195606</v>
       </c>
       <c r="D4">
-        <v>4.71459173253259</v>
+        <v>4.732290262745765</v>
       </c>
       <c r="E4">
-        <v>9.917609092856566</v>
+        <v>12.83470470243158</v>
       </c>
       <c r="F4">
-        <v>14.11090552058223</v>
+        <v>22.55095634664895</v>
       </c>
       <c r="G4">
-        <v>16.01800236487506</v>
+        <v>25.71449060272325</v>
       </c>
       <c r="H4">
-        <v>7.551906042134243</v>
+        <v>13.68080239068306</v>
       </c>
       <c r="I4">
-        <v>12.89920235687723</v>
+        <v>21.70859008605574</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>22.27770996659674</v>
+        <v>15.09408994974166</v>
       </c>
       <c r="L4">
-        <v>5.980046403138337</v>
+        <v>9.377150354075509</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.515981415675</v>
+        <v>20.39024379045035</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.038567217443308</v>
+        <v>10.69420774252381</v>
       </c>
       <c r="D5">
-        <v>4.657394680018002</v>
+        <v>4.712538962560552</v>
       </c>
       <c r="E5">
-        <v>9.797912043774538</v>
+        <v>12.81991686575815</v>
       </c>
       <c r="F5">
-        <v>14.09089996537465</v>
+        <v>22.58595315540514</v>
       </c>
       <c r="G5">
-        <v>16.0225539320487</v>
+        <v>25.77432911080325</v>
       </c>
       <c r="H5">
-        <v>7.591739544382087</v>
+        <v>13.70141726014244</v>
       </c>
       <c r="I5">
-        <v>12.908114557999</v>
+        <v>21.74027220379131</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>21.84483723018852</v>
+        <v>14.88854494178197</v>
       </c>
       <c r="L5">
-        <v>5.9476390152668</v>
+        <v>9.378588533084525</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.56997278736275</v>
+        <v>20.42857868709228</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.015957495738757</v>
+        <v>10.68997225326469</v>
       </c>
       <c r="D6">
-        <v>4.647823151015194</v>
+        <v>4.709245805942714</v>
       </c>
       <c r="E6">
-        <v>9.777975706723474</v>
+        <v>12.81750090403224</v>
       </c>
       <c r="F6">
-        <v>14.08793583985105</v>
+        <v>22.59188614951388</v>
       </c>
       <c r="G6">
-        <v>16.02395141424112</v>
+        <v>25.78444760546323</v>
       </c>
       <c r="H6">
-        <v>7.598455696595863</v>
+        <v>13.70488366754782</v>
       </c>
       <c r="I6">
-        <v>12.90986255987386</v>
+        <v>21.74562691483294</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>21.77210714654354</v>
+        <v>14.85411402947279</v>
       </c>
       <c r="L6">
-        <v>5.942292524821362</v>
+        <v>9.378851711665117</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.5791969737815</v>
+        <v>20.43503383156992</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.172040260859275</v>
+        <v>10.71951023625816</v>
       </c>
       <c r="D7">
-        <v>4.713825350070609</v>
+        <v>4.732024802543148</v>
       </c>
       <c r="E7">
-        <v>9.915999009026679</v>
+        <v>12.83450262473755</v>
       </c>
       <c r="F7">
-        <v>14.11061157478995</v>
+        <v>22.55142015294005</v>
       </c>
       <c r="G7">
-        <v>16.01802030465556</v>
+        <v>25.71528536450183</v>
       </c>
       <c r="H7">
-        <v>7.552436372798882</v>
+        <v>13.68107750566766</v>
       </c>
       <c r="I7">
-        <v>12.89930442878414</v>
+        <v>21.70901106225165</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>22.27192922335823</v>
+        <v>15.09133817915091</v>
       </c>
       <c r="L7">
-        <v>5.979607035971214</v>
+        <v>9.377168116399078</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.51669201271465</v>
+        <v>20.39075477496577</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.838527643330623</v>
+        <v>10.85312006083292</v>
       </c>
       <c r="D8">
-        <v>4.993956492263777</v>
+        <v>4.830480461964179</v>
       </c>
       <c r="E8">
-        <v>10.51499280220909</v>
+        <v>12.91519226163038</v>
       </c>
       <c r="F8">
-        <v>14.26431593582279</v>
+        <v>22.3906388754707</v>
       </c>
       <c r="G8">
-        <v>16.08955939616798</v>
+        <v>25.43677291895453</v>
       </c>
       <c r="H8">
-        <v>7.364746117590301</v>
+        <v>13.5823235369167</v>
       </c>
       <c r="I8">
-        <v>12.8932493033134</v>
+        <v>21.56112538184507</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>24.35356660621485</v>
+        <v>16.09300237639492</v>
       </c>
       <c r="L8">
-        <v>6.149111926983846</v>
+        <v>9.373277701948785</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.28061819903722</v>
+        <v>20.20842045960229</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>11.0567021272363</v>
+        <v>11.12514482849579</v>
       </c>
       <c r="D9">
-        <v>5.500457579388296</v>
+        <v>5.015175897579461</v>
       </c>
       <c r="E9">
-        <v>11.64335799066139</v>
+        <v>13.09292135382307</v>
       </c>
       <c r="F9">
-        <v>14.77171519333258</v>
+        <v>22.14004276834553</v>
       </c>
       <c r="G9">
-        <v>16.61745049515693</v>
+        <v>24.98824733174952</v>
       </c>
       <c r="H9">
-        <v>7.058281838029</v>
+        <v>13.41130226406161</v>
       </c>
       <c r="I9">
-        <v>13.04133919152452</v>
+        <v>21.32071768627629</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>27.99045298326027</v>
+        <v>17.88324480406438</v>
       </c>
       <c r="L9">
-        <v>6.496962039379098</v>
+        <v>9.378325874543693</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>10.98209275992364</v>
+        <v>19.8980600424228</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.89198009512024</v>
+        <v>11.32952932087389</v>
       </c>
       <c r="D10">
-        <v>5.84455711634315</v>
+        <v>5.144958967868654</v>
       </c>
       <c r="E10">
-        <v>12.43719565677974</v>
+        <v>13.23454113633089</v>
       </c>
       <c r="F10">
-        <v>15.27894379524485</v>
+        <v>21.99605134255466</v>
       </c>
       <c r="G10">
-        <v>17.26574638645072</v>
+        <v>24.71982170594945</v>
       </c>
       <c r="H10">
-        <v>6.877465791304484</v>
+        <v>13.29945248227811</v>
       </c>
       <c r="I10">
-        <v>13.25955336685833</v>
+        <v>21.17467298291902</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>30.39305498173069</v>
+        <v>19.08449684392366</v>
       </c>
       <c r="L10">
-        <v>6.760265062013833</v>
+        <v>9.389715245412592</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>10.88406040916218</v>
+        <v>19.69905412262458</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.2582333570639</v>
+        <v>11.42315236107988</v>
       </c>
       <c r="D11">
-        <v>5.994726128930616</v>
+        <v>5.202557916908304</v>
       </c>
       <c r="E11">
-        <v>12.78962944137821</v>
+        <v>13.30117048486268</v>
       </c>
       <c r="F11">
-        <v>15.54008730640881</v>
+        <v>21.93939730362455</v>
       </c>
       <c r="G11">
-        <v>17.62020208681245</v>
+        <v>24.61131580659927</v>
       </c>
       <c r="H11">
-        <v>6.806549639936748</v>
+        <v>13.2515665987672</v>
       </c>
       <c r="I11">
-        <v>13.38479961386536</v>
+        <v>21.11494776299494</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>31.42824081422275</v>
+        <v>19.60498093838004</v>
       </c>
       <c r="L11">
-        <v>6.881405068775773</v>
+        <v>9.396550840360122</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>10.87047889496839</v>
+        <v>19.61487677649871</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>12.39490885872984</v>
+        <v>11.45866958783252</v>
       </c>
       <c r="D12">
-        <v>6.050658872483774</v>
+        <v>5.224149602604259</v>
       </c>
       <c r="E12">
-        <v>12.92177300965344</v>
+        <v>13.32670110887781</v>
       </c>
       <c r="F12">
-        <v>15.64340282829506</v>
+        <v>21.91922720653501</v>
       </c>
       <c r="G12">
-        <v>17.76309026188466</v>
+        <v>24.57221132474374</v>
       </c>
       <c r="H12">
-        <v>6.781485978088911</v>
+        <v>13.23386444092469</v>
       </c>
       <c r="I12">
-        <v>13.43611960375259</v>
+        <v>21.09330246176969</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>31.81199777290689</v>
+        <v>19.79826057741461</v>
       </c>
       <c r="L12">
-        <v>6.927449557680355</v>
+        <v>9.399375774331114</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>10.8701803043548</v>
+        <v>19.58391927160907</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.36556358111558</v>
+        <v>11.45101791907281</v>
       </c>
       <c r="D13">
-        <v>6.038654489564635</v>
+        <v>5.219509417039017</v>
       </c>
       <c r="E13">
-        <v>12.89337291026575</v>
+        <v>13.32118959677629</v>
       </c>
       <c r="F13">
-        <v>15.62095453636379</v>
+        <v>21.92351393800338</v>
       </c>
       <c r="G13">
-        <v>17.73193076887211</v>
+        <v>24.5805444709202</v>
       </c>
       <c r="H13">
-        <v>6.786801536525166</v>
+        <v>13.23765773186777</v>
       </c>
       <c r="I13">
-        <v>13.4248915472011</v>
+        <v>21.0979208649697</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>31.72971449207554</v>
+        <v>19.75680522699844</v>
       </c>
       <c r="L13">
-        <v>6.917525786560133</v>
+        <v>9.398756883683404</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>10.87002312199485</v>
+        <v>19.59054558194653</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.26951834970844</v>
+        <v>11.42607326240121</v>
       </c>
       <c r="D14">
-        <v>5.999346535152081</v>
+        <v>5.204338753143232</v>
       </c>
       <c r="E14">
-        <v>12.80052765592038</v>
+        <v>13.30326500446275</v>
       </c>
       <c r="F14">
-        <v>15.54849821089651</v>
+        <v>21.93771211074152</v>
       </c>
       <c r="G14">
-        <v>17.63178369503473</v>
+        <v>24.60805872638197</v>
       </c>
       <c r="H14">
-        <v>6.804450778835067</v>
+        <v>13.25010158697933</v>
       </c>
       <c r="I14">
-        <v>13.38894291334559</v>
+        <v>21.11314748825044</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>31.45997759786541</v>
+        <v>19.62095907173323</v>
       </c>
       <c r="L14">
-        <v>6.885189870645189</v>
+        <v>9.396778519762512</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.87035506675829</v>
+        <v>19.61231144236344</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.21042418881398</v>
+        <v>11.41080144892305</v>
       </c>
       <c r="D15">
-        <v>5.975147317245425</v>
+        <v>5.195017295039821</v>
       </c>
       <c r="E15">
-        <v>12.74348426576192</v>
+        <v>13.2923241497518</v>
       </c>
       <c r="F15">
-        <v>15.50469420085487</v>
+        <v>21.94657638280066</v>
       </c>
       <c r="G15">
-        <v>17.57157041490703</v>
+        <v>24.62517126101336</v>
       </c>
       <c r="H15">
-        <v>6.815499660373618</v>
+        <v>13.25777997618446</v>
       </c>
       <c r="I15">
-        <v>13.36743449240803</v>
+        <v>21.12260091693081</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>31.29368413655904</v>
+        <v>19.53725020359365</v>
       </c>
       <c r="L15">
-        <v>6.865404835880427</v>
+        <v>9.395597459894244</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>10.87120055891092</v>
+        <v>19.62576345278154</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.86776443447868</v>
+        <v>11.32342138919494</v>
       </c>
       <c r="D16">
-        <v>5.834613531623297</v>
+        <v>5.14116466205406</v>
       </c>
       <c r="E16">
-        <v>12.41398242227401</v>
+        <v>13.23022964080622</v>
       </c>
       <c r="F16">
-        <v>15.26249447933531</v>
+        <v>21.99993283401437</v>
       </c>
       <c r="G16">
-        <v>17.2437908082899</v>
+        <v>24.72718896258226</v>
       </c>
       <c r="H16">
-        <v>6.882341860798016</v>
+        <v>13.30264224798574</v>
       </c>
       <c r="I16">
-        <v>13.25190478586051</v>
+        <v>21.17871175228666</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>30.32424576458142</v>
+        <v>19.04995203580965</v>
       </c>
       <c r="L16">
-        <v>6.752373525925935</v>
+        <v>9.389301694055728</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>10.88560511660348</v>
+        <v>19.70468356707856</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.65400406227269</v>
+        <v>11.26996176918018</v>
       </c>
       <c r="D17">
-        <v>5.746756542223864</v>
+        <v>5.107749733371953</v>
       </c>
       <c r="E17">
-        <v>12.20956618205426</v>
+        <v>13.19268923735275</v>
       </c>
       <c r="F17">
-        <v>15.12174687408907</v>
+        <v>22.03493965422054</v>
       </c>
       <c r="G17">
-        <v>17.0580610113494</v>
+        <v>24.79327762031649</v>
       </c>
       <c r="H17">
-        <v>6.926360913901582</v>
+        <v>13.33093125886603</v>
       </c>
       <c r="I17">
-        <v>13.18780214838596</v>
+        <v>21.21485733530323</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>29.71477172745436</v>
+        <v>18.74429538513006</v>
       </c>
       <c r="L17">
-        <v>6.68336299701769</v>
+        <v>9.385862210687847</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.90266091652437</v>
+        <v>19.75472898195346</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.52976508594764</v>
+        <v>11.23927587624623</v>
       </c>
       <c r="D18">
-        <v>5.695625322688782</v>
+        <v>5.088395526533729</v>
       </c>
       <c r="E18">
-        <v>12.09117654960457</v>
+        <v>13.17130570330085</v>
       </c>
       <c r="F18">
-        <v>15.04365283559208</v>
+        <v>22.05590686053356</v>
       </c>
       <c r="G18">
-        <v>16.95683891343197</v>
+        <v>24.83256869110665</v>
       </c>
       <c r="H18">
-        <v>6.952736222553348</v>
+        <v>13.34748423436874</v>
       </c>
       <c r="I18">
-        <v>13.15336917562927</v>
+        <v>21.2362786429436</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>29.35877654061046</v>
+        <v>18.56604903023113</v>
       </c>
       <c r="L18">
-        <v>6.64379946877076</v>
+        <v>9.384039740381217</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>10.91536728657968</v>
+        <v>19.78411128276612</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.48747998302181</v>
+        <v>11.22889780720974</v>
       </c>
       <c r="D19">
-        <v>5.678211048505976</v>
+        <v>5.081819766958695</v>
       </c>
       <c r="E19">
-        <v>12.05095420755508</v>
+        <v>13.16410198200438</v>
       </c>
       <c r="F19">
-        <v>15.01770069349066</v>
+        <v>22.0631485817632</v>
       </c>
       <c r="G19">
-        <v>16.92352484659843</v>
+        <v>24.84609071015403</v>
       </c>
       <c r="H19">
-        <v>6.961843286918905</v>
+        <v>13.35313718735078</v>
       </c>
       <c r="I19">
-        <v>13.14212427937754</v>
+        <v>21.24363976764498</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>29.23730630228408</v>
+        <v>18.50528142185262</v>
       </c>
       <c r="L19">
-        <v>6.630426975024617</v>
+        <v>9.383449489284994</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>10.92015506344305</v>
+        <v>19.79416208747008</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.67689305868308</v>
+        <v>11.27564636130539</v>
       </c>
       <c r="D20">
-        <v>5.756171124476136</v>
+        <v>5.11132085753859</v>
       </c>
       <c r="E20">
-        <v>12.23141150424638</v>
+        <v>13.19666400260193</v>
       </c>
       <c r="F20">
-        <v>15.13643319352811</v>
+        <v>22.03112690561742</v>
       </c>
       <c r="G20">
-        <v>17.07725116441128</v>
+        <v>24.78610983113622</v>
       </c>
       <c r="H20">
-        <v>6.921564528470834</v>
+        <v>13.32789066796243</v>
       </c>
       <c r="I20">
-        <v>13.19437255420302</v>
+        <v>21.21094419084595</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>29.780214067906</v>
+        <v>18.77708630428025</v>
       </c>
       <c r="L20">
-        <v>6.690696069600945</v>
+        <v>9.386212231935835</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>10.90054272906068</v>
+        <v>19.74933968496999</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.2977841719969</v>
+        <v>11.43339859906014</v>
       </c>
       <c r="D21">
-        <v>6.010917676592036</v>
+        <v>5.208800807768158</v>
       </c>
       <c r="E21">
-        <v>12.82783470378384</v>
+        <v>13.308521905642</v>
       </c>
       <c r="F21">
-        <v>15.5696599611794</v>
+        <v>21.93350684096914</v>
       </c>
       <c r="G21">
-        <v>17.66096383478604</v>
+        <v>24.59992304302122</v>
       </c>
       <c r="H21">
-        <v>6.799216819359049</v>
+        <v>13.246434818652</v>
       </c>
       <c r="I21">
-        <v>13.39939512240926</v>
+        <v>21.10864864835671</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>31.53942910773213</v>
+        <v>19.66096453341087</v>
       </c>
       <c r="L21">
-        <v>6.894683240916878</v>
+        <v>9.397353208807049</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>10.87012306626784</v>
+        <v>19.6058933072465</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>12.69180730014002</v>
+        <v>11.53685989207325</v>
       </c>
       <c r="D22">
-        <v>6.171965731942361</v>
+        <v>5.271223090037089</v>
       </c>
       <c r="E22">
-        <v>13.2099451377185</v>
+        <v>13.38336490405667</v>
       </c>
       <c r="F22">
-        <v>15.87860566642896</v>
+        <v>21.87719291123686</v>
       </c>
       <c r="G22">
-        <v>18.09293757674053</v>
+        <v>24.48981849868149</v>
       </c>
       <c r="H22">
-        <v>6.729777934038596</v>
+        <v>13.19571226275692</v>
       </c>
       <c r="I22">
-        <v>13.55613343925046</v>
+        <v>21.04745717536545</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>32.64115142052091</v>
+        <v>20.21635740219628</v>
       </c>
       <c r="L22">
-        <v>7.028990637908144</v>
+        <v>9.406011846400228</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>10.87864991104587</v>
+        <v>19.51749984501281</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>12.48259708068102</v>
+        <v>11.48161708891958</v>
       </c>
       <c r="D23">
-        <v>6.08651423941477</v>
+        <v>5.238028882819065</v>
       </c>
       <c r="E23">
-        <v>13.00672653730353</v>
+        <v>13.34326677609928</v>
       </c>
       <c r="F23">
-        <v>15.71134268574156</v>
+        <v>21.9065601302126</v>
       </c>
       <c r="G23">
-        <v>17.85775497865357</v>
+        <v>24.54751455031686</v>
       </c>
       <c r="H23">
-        <v>6.765819280831707</v>
+        <v>13.22255368080142</v>
       </c>
       <c r="I23">
-        <v>13.47035150535438</v>
+        <v>21.07959585780069</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>32.05751338001367</v>
+        <v>19.92199495454091</v>
       </c>
       <c r="L23">
-        <v>6.957224925867041</v>
+        <v>9.401265070172379</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>10.87137513027627</v>
+        <v>19.56418514085495</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.66654913019768</v>
+        <v>11.27307620315129</v>
       </c>
       <c r="D24">
-        <v>5.751916724913545</v>
+        <v>5.109706798357883</v>
       </c>
       <c r="E24">
-        <v>12.2215379325314</v>
+        <v>13.19486639022177</v>
       </c>
       <c r="F24">
-        <v>15.12978471790452</v>
+        <v>22.03284802944314</v>
       </c>
       <c r="G24">
-        <v>17.06855799783148</v>
+        <v>24.78934635434721</v>
       </c>
       <c r="H24">
-        <v>6.923729659181295</v>
+        <v>13.32926441814131</v>
       </c>
       <c r="I24">
-        <v>13.19139454651916</v>
+        <v>21.2127113280764</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>29.75064503450591</v>
+        <v>18.76226937349756</v>
       </c>
       <c r="L24">
-        <v>6.687380438153184</v>
+        <v>9.386053504616395</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>10.9014913556873</v>
+        <v>19.75177428475481</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.73731851361938</v>
+        <v>11.05064443711817</v>
       </c>
       <c r="D25">
-        <v>5.368242730183102</v>
+        <v>4.966193135954665</v>
       </c>
       <c r="E25">
-        <v>11.34385636334433</v>
+        <v>13.04283769355798</v>
       </c>
       <c r="F25">
-        <v>14.61135192890073</v>
+        <v>22.20083799355173</v>
       </c>
       <c r="G25">
-        <v>16.43025939880543</v>
+        <v>25.09896920387939</v>
       </c>
       <c r="H25">
-        <v>7.133937116193436</v>
+        <v>13.45514492787528</v>
       </c>
       <c r="I25">
-        <v>12.98286878303027</v>
+        <v>21.38040864037243</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>27.05408598695958</v>
+        <v>17.4184793243747</v>
       </c>
       <c r="L25">
-        <v>6.401383424677459</v>
+        <v>9.375607319470095</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.04311827729487</v>
+        <v>19.97694341371885</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_189/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_189/res_line/loading_percent.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.89005729301824</v>
+        <v>10.0133607631561</v>
       </c>
       <c r="D2">
-        <v>4.856621484747805</v>
+        <v>5.067044972521852</v>
       </c>
       <c r="E2">
-        <v>12.93840400648249</v>
+        <v>10.6744665480222</v>
       </c>
       <c r="F2">
-        <v>22.35142742984598</v>
+        <v>14.31949448291624</v>
       </c>
       <c r="G2">
-        <v>25.3678587216665</v>
+        <v>16.13404718557979</v>
       </c>
       <c r="H2">
-        <v>13.55709804453758</v>
+        <v>7.317833265542988</v>
       </c>
       <c r="I2">
-        <v>21.52439908708962</v>
+        <v>12.90196136285244</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.35297958215924</v>
+        <v>24.88741611008393</v>
       </c>
       <c r="L2">
-        <v>9.373082914176443</v>
+        <v>6.196149641424407</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.16220226274447</v>
+        <v>11.22702705225552</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10.78373310762257</v>
+        <v>9.499734325989809</v>
       </c>
       <c r="D3">
-        <v>4.780193353632171</v>
+        <v>4.851878377589179</v>
       </c>
       <c r="E3">
-        <v>12.87258585253256</v>
+        <v>10.20865157883821</v>
       </c>
       <c r="F3">
-        <v>22.47003912750792</v>
+        <v>14.17482235005886</v>
       </c>
       <c r="G3">
-        <v>25.57509025088033</v>
+        <v>16.03368201507052</v>
       </c>
       <c r="H3">
-        <v>13.63197499343617</v>
+        <v>7.458391899023193</v>
       </c>
       <c r="I3">
-        <v>21.63466694182044</v>
+        <v>12.88849588924256</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.58601673378424</v>
+        <v>23.30531098940977</v>
       </c>
       <c r="L3">
-        <v>9.374610754696484</v>
+        <v>6.060948474002227</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>20.29981979092949</v>
+        <v>11.39436771368256</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>10.71985773195606</v>
+        <v>9.173854943385068</v>
       </c>
       <c r="D4">
-        <v>4.732290262745765</v>
+        <v>4.714591732532676</v>
       </c>
       <c r="E4">
-        <v>12.83470470243158</v>
+        <v>9.917609092856521</v>
       </c>
       <c r="F4">
-        <v>22.55095634664895</v>
+        <v>14.11090552058217</v>
       </c>
       <c r="G4">
-        <v>25.71449060272325</v>
+        <v>16.01800236487509</v>
       </c>
       <c r="H4">
-        <v>13.68080239068306</v>
+        <v>7.551906042134189</v>
       </c>
       <c r="I4">
-        <v>21.70859008605574</v>
+        <v>12.89920235687718</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.09408994974166</v>
+        <v>22.27770996659675</v>
       </c>
       <c r="L4">
-        <v>9.377150354075509</v>
+        <v>5.980046403138313</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.39024379045035</v>
+        <v>11.51598141567499</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>10.69420774252381</v>
+        <v>9.038567217443221</v>
       </c>
       <c r="D5">
-        <v>4.712538962560552</v>
+        <v>4.657394680017926</v>
       </c>
       <c r="E5">
-        <v>12.81991686575815</v>
+        <v>9.797912043774463</v>
       </c>
       <c r="F5">
-        <v>22.58595315540514</v>
+        <v>14.09089996537466</v>
       </c>
       <c r="G5">
-        <v>25.77432911080325</v>
+        <v>16.02255393204866</v>
       </c>
       <c r="H5">
-        <v>13.70141726014244</v>
+        <v>7.591739544382089</v>
       </c>
       <c r="I5">
-        <v>21.74027220379131</v>
+        <v>12.90811455799898</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.88854494178197</v>
+        <v>21.84483723018853</v>
       </c>
       <c r="L5">
-        <v>9.378588533084525</v>
+        <v>5.947639015266725</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20.42857868709228</v>
+        <v>11.56997278736271</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10.68997225326469</v>
+        <v>9.015957495738803</v>
       </c>
       <c r="D6">
-        <v>4.709245805942714</v>
+        <v>4.647823151015217</v>
       </c>
       <c r="E6">
-        <v>12.81750090403224</v>
+        <v>9.777975706723527</v>
       </c>
       <c r="F6">
-        <v>22.59188614951388</v>
+        <v>14.08793583985129</v>
       </c>
       <c r="G6">
-        <v>25.78444760546323</v>
+        <v>16.02395141424154</v>
       </c>
       <c r="H6">
-        <v>13.70488366754782</v>
+        <v>7.598455696595935</v>
       </c>
       <c r="I6">
-        <v>21.74562691483294</v>
+        <v>12.90986255987404</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.85411402947279</v>
+        <v>21.7721071465435</v>
       </c>
       <c r="L6">
-        <v>9.378851711665117</v>
+        <v>5.942292524821396</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>20.43503383156992</v>
+        <v>11.57919697378172</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>10.71951023625816</v>
+        <v>9.172040260859353</v>
       </c>
       <c r="D7">
-        <v>4.732024802543148</v>
+        <v>4.71382535007058</v>
       </c>
       <c r="E7">
-        <v>12.83450262473755</v>
+        <v>9.915999009026656</v>
       </c>
       <c r="F7">
-        <v>22.55142015294005</v>
+        <v>14.11061157478971</v>
       </c>
       <c r="G7">
-        <v>25.71528536450183</v>
+        <v>16.01802030465529</v>
       </c>
       <c r="H7">
-        <v>13.68107750566766</v>
+        <v>7.552436372798751</v>
       </c>
       <c r="I7">
-        <v>21.70901106225165</v>
+        <v>12.89930442878405</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.09133817915091</v>
+        <v>22.27192922335828</v>
       </c>
       <c r="L7">
-        <v>9.377168116399078</v>
+        <v>5.979607035971111</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.39075477496577</v>
+        <v>11.51669201271447</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.85312006083292</v>
+        <v>9.838527643330623</v>
       </c>
       <c r="D8">
-        <v>4.830480461964179</v>
+        <v>4.993956492263873</v>
       </c>
       <c r="E8">
-        <v>12.91519226163038</v>
+        <v>10.5149928022091</v>
       </c>
       <c r="F8">
-        <v>22.3906388754707</v>
+        <v>14.26431593582268</v>
       </c>
       <c r="G8">
-        <v>25.43677291895453</v>
+        <v>16.08955939616798</v>
       </c>
       <c r="H8">
-        <v>13.5823235369167</v>
+        <v>7.364746117590244</v>
       </c>
       <c r="I8">
-        <v>21.56112538184507</v>
+        <v>12.89324930331336</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.09300237639492</v>
+        <v>24.35356660621485</v>
       </c>
       <c r="L8">
-        <v>9.373277701948785</v>
+        <v>6.149111926983849</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.20842045960229</v>
+        <v>11.28061819903717</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>11.12514482849579</v>
+        <v>11.0567021272363</v>
       </c>
       <c r="D9">
-        <v>5.015175897579461</v>
+        <v>5.500457579388171</v>
       </c>
       <c r="E9">
-        <v>13.09292135382307</v>
+        <v>11.64335799066138</v>
       </c>
       <c r="F9">
-        <v>22.14004276834553</v>
+        <v>14.77171519333256</v>
       </c>
       <c r="G9">
-        <v>24.98824733174952</v>
+        <v>16.61745049515676</v>
       </c>
       <c r="H9">
-        <v>13.41130226406161</v>
+        <v>7.058281838028995</v>
       </c>
       <c r="I9">
-        <v>21.32071768627629</v>
+        <v>13.04133919152446</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.88324480406438</v>
+        <v>27.99045298326034</v>
       </c>
       <c r="L9">
-        <v>9.378325874543693</v>
+        <v>6.496962039379034</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.8980600424228</v>
+        <v>10.98209275992356</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.32952932087389</v>
+        <v>11.89198009512027</v>
       </c>
       <c r="D10">
-        <v>5.144958967868654</v>
+        <v>5.844557116343107</v>
       </c>
       <c r="E10">
-        <v>13.23454113633089</v>
+        <v>12.43719565677975</v>
       </c>
       <c r="F10">
-        <v>21.99605134255466</v>
+        <v>15.27894379524481</v>
       </c>
       <c r="G10">
-        <v>24.71982170594945</v>
+        <v>17.26574638645072</v>
       </c>
       <c r="H10">
-        <v>13.29945248227811</v>
+        <v>6.877465791304484</v>
       </c>
       <c r="I10">
-        <v>21.17467298291902</v>
+        <v>13.25955336685829</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.08449684392366</v>
+        <v>30.3930549817307</v>
       </c>
       <c r="L10">
-        <v>9.389715245412592</v>
+        <v>6.760265062013844</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.69905412262458</v>
+        <v>10.88406040916212</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>11.42315236107988</v>
+        <v>12.25823335706385</v>
       </c>
       <c r="D11">
-        <v>5.202557916908304</v>
+        <v>5.994726128930717</v>
       </c>
       <c r="E11">
-        <v>13.30117048486268</v>
+        <v>12.78962944137819</v>
       </c>
       <c r="F11">
-        <v>21.93939730362455</v>
+        <v>15.54008730640884</v>
       </c>
       <c r="G11">
-        <v>24.61131580659927</v>
+        <v>17.62020208681258</v>
       </c>
       <c r="H11">
-        <v>13.2515665987672</v>
+        <v>6.806549639936751</v>
       </c>
       <c r="I11">
-        <v>21.11494776299494</v>
+        <v>13.38479961386538</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.60498093838004</v>
+        <v>31.42824081422273</v>
       </c>
       <c r="L11">
-        <v>9.396550840360122</v>
+        <v>6.881405068775768</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.61487677649871</v>
+        <v>10.87047889496844</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>11.45866958783252</v>
+        <v>12.39490885872983</v>
       </c>
       <c r="D12">
-        <v>5.224149602604259</v>
+        <v>6.05065887248384</v>
       </c>
       <c r="E12">
-        <v>13.32670110887781</v>
+        <v>12.92177300965344</v>
       </c>
       <c r="F12">
-        <v>21.91922720653501</v>
+        <v>15.643402828295</v>
       </c>
       <c r="G12">
-        <v>24.57221132474374</v>
+        <v>17.76309026188463</v>
       </c>
       <c r="H12">
-        <v>13.23386444092469</v>
+        <v>6.781485978088905</v>
       </c>
       <c r="I12">
-        <v>21.09330246176969</v>
+        <v>13.43611960375256</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.79826057741461</v>
+        <v>31.8119977729069</v>
       </c>
       <c r="L12">
-        <v>9.399375774331114</v>
+        <v>6.927449557680373</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.58391927160907</v>
+        <v>10.87018030435474</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>11.45101791907281</v>
+        <v>12.36556358111556</v>
       </c>
       <c r="D13">
-        <v>5.219509417039017</v>
+        <v>6.038654489564655</v>
       </c>
       <c r="E13">
-        <v>13.32118959677629</v>
+        <v>12.89337291026575</v>
       </c>
       <c r="F13">
-        <v>21.92351393800338</v>
+        <v>15.62095453636381</v>
       </c>
       <c r="G13">
-        <v>24.5805444709202</v>
+        <v>17.73193076887219</v>
       </c>
       <c r="H13">
-        <v>13.23765773186777</v>
+        <v>6.786801536525172</v>
       </c>
       <c r="I13">
-        <v>21.0979208649697</v>
+        <v>13.42489154720113</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.75680522699844</v>
+        <v>31.72971449207551</v>
       </c>
       <c r="L13">
-        <v>9.398756883683404</v>
+        <v>6.917525786560152</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.59054558194653</v>
+        <v>10.87002312199489</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>11.42607326240121</v>
+        <v>12.26951834970841</v>
       </c>
       <c r="D14">
-        <v>5.204338753143232</v>
+        <v>5.999346535152033</v>
       </c>
       <c r="E14">
-        <v>13.30326500446275</v>
+        <v>12.80052765592039</v>
       </c>
       <c r="F14">
-        <v>21.93771211074152</v>
+        <v>15.54849821089643</v>
       </c>
       <c r="G14">
-        <v>24.60805872638197</v>
+        <v>17.63178369503462</v>
       </c>
       <c r="H14">
-        <v>13.25010158697933</v>
+        <v>6.804450778835015</v>
       </c>
       <c r="I14">
-        <v>21.11314748825044</v>
+        <v>13.3889429133455</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.62095907173323</v>
+        <v>31.45997759786545</v>
       </c>
       <c r="L14">
-        <v>9.396778519762512</v>
+        <v>6.885189870645182</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.61231144236344</v>
+        <v>10.87035506675815</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>11.41080144892305</v>
+        <v>12.21042418881398</v>
       </c>
       <c r="D15">
-        <v>5.195017295039821</v>
+        <v>5.975147317245433</v>
       </c>
       <c r="E15">
-        <v>13.2923241497518</v>
+        <v>12.74348426576191</v>
       </c>
       <c r="F15">
-        <v>21.94657638280066</v>
+        <v>15.50469420085475</v>
       </c>
       <c r="G15">
-        <v>24.62517126101336</v>
+        <v>17.57157041490698</v>
       </c>
       <c r="H15">
-        <v>13.25777997618446</v>
+        <v>6.815499660373554</v>
       </c>
       <c r="I15">
-        <v>21.12260091693081</v>
+        <v>13.36743449240794</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.53725020359365</v>
+        <v>31.2936841365591</v>
       </c>
       <c r="L15">
-        <v>9.395597459894244</v>
+        <v>6.865404835880422</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.62576345278154</v>
+        <v>10.87120055891079</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>11.32342138919494</v>
+        <v>11.86776443447862</v>
       </c>
       <c r="D16">
-        <v>5.14116466205406</v>
+        <v>5.834613531623302</v>
       </c>
       <c r="E16">
-        <v>13.23022964080622</v>
+        <v>12.41398242227396</v>
       </c>
       <c r="F16">
-        <v>21.99993283401437</v>
+        <v>15.26249447933519</v>
       </c>
       <c r="G16">
-        <v>24.72718896258226</v>
+        <v>17.24379080828981</v>
       </c>
       <c r="H16">
-        <v>13.30264224798574</v>
+        <v>6.882341860797863</v>
       </c>
       <c r="I16">
-        <v>21.17871175228666</v>
+        <v>13.25190478586034</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>19.04995203580965</v>
+        <v>30.32424576458147</v>
       </c>
       <c r="L16">
-        <v>9.389301694055728</v>
+        <v>6.752373525925899</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.70468356707856</v>
+        <v>10.88560511660333</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.26996176918018</v>
+        <v>11.65400406227271</v>
       </c>
       <c r="D17">
-        <v>5.107749733371953</v>
+        <v>5.746756542223793</v>
       </c>
       <c r="E17">
-        <v>13.19268923735275</v>
+        <v>12.20956618205428</v>
       </c>
       <c r="F17">
-        <v>22.03493965422054</v>
+        <v>15.12174687408897</v>
       </c>
       <c r="G17">
-        <v>24.79327762031649</v>
+        <v>17.05806101134928</v>
       </c>
       <c r="H17">
-        <v>13.33093125886603</v>
+        <v>6.926360913901468</v>
       </c>
       <c r="I17">
-        <v>21.21485733530323</v>
+        <v>13.18780214838587</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.74429538513006</v>
+        <v>29.7147717274544</v>
       </c>
       <c r="L17">
-        <v>9.385862210687847</v>
+        <v>6.683362997017718</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>19.75472898195346</v>
+        <v>10.90266091652424</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.23927587624623</v>
+        <v>11.52976508594757</v>
       </c>
       <c r="D18">
-        <v>5.088395526533729</v>
+        <v>5.69562532268869</v>
       </c>
       <c r="E18">
-        <v>13.17130570330085</v>
+        <v>12.09117654960455</v>
       </c>
       <c r="F18">
-        <v>22.05590686053356</v>
+        <v>15.04365283559205</v>
       </c>
       <c r="G18">
-        <v>24.83256869110665</v>
+        <v>16.95683891343186</v>
       </c>
       <c r="H18">
-        <v>13.34748423436874</v>
+        <v>6.952736222553299</v>
       </c>
       <c r="I18">
-        <v>21.2362786429436</v>
+        <v>13.15336917562919</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.56604903023113</v>
+        <v>29.35877654061048</v>
       </c>
       <c r="L18">
-        <v>9.384039740381217</v>
+        <v>6.643799468770746</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>19.78411128276612</v>
+        <v>10.91536728657959</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.22889780720974</v>
+        <v>11.48747998302177</v>
       </c>
       <c r="D19">
-        <v>5.081819766958695</v>
+        <v>5.678211048506084</v>
       </c>
       <c r="E19">
-        <v>13.16410198200438</v>
+        <v>12.05095420755509</v>
       </c>
       <c r="F19">
-        <v>22.0631485817632</v>
+        <v>15.01770069349051</v>
       </c>
       <c r="G19">
-        <v>24.84609071015403</v>
+        <v>16.92352484659833</v>
       </c>
       <c r="H19">
-        <v>13.35313718735078</v>
+        <v>6.961843286918789</v>
       </c>
       <c r="I19">
-        <v>21.24363976764498</v>
+        <v>13.14212427937738</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.50528142185262</v>
+        <v>29.23730630228411</v>
       </c>
       <c r="L19">
-        <v>9.383449489284994</v>
+        <v>6.630426975024685</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>19.79416208747008</v>
+        <v>10.92015506344293</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.27564636130539</v>
+        <v>11.6768930586831</v>
       </c>
       <c r="D20">
-        <v>5.11132085753859</v>
+        <v>5.756171124476079</v>
       </c>
       <c r="E20">
-        <v>13.19666400260193</v>
+        <v>12.2314115042464</v>
       </c>
       <c r="F20">
-        <v>22.03112690561742</v>
+        <v>15.13643319352799</v>
       </c>
       <c r="G20">
-        <v>24.78610983113622</v>
+        <v>17.0772511644112</v>
       </c>
       <c r="H20">
-        <v>13.32789066796243</v>
+        <v>6.921564528470676</v>
       </c>
       <c r="I20">
-        <v>21.21094419084595</v>
+        <v>13.19437255420294</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.77708630428025</v>
+        <v>29.78021406790605</v>
       </c>
       <c r="L20">
-        <v>9.386212231935835</v>
+        <v>6.690696069600932</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>19.74933968496999</v>
+        <v>10.90054272906054</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.43339859906014</v>
+        <v>12.29778417199691</v>
       </c>
       <c r="D21">
-        <v>5.208800807768158</v>
+        <v>6.010917676591921</v>
       </c>
       <c r="E21">
-        <v>13.308521905642</v>
+        <v>12.82783470378384</v>
       </c>
       <c r="F21">
-        <v>21.93350684096914</v>
+        <v>15.56965996117934</v>
       </c>
       <c r="G21">
-        <v>24.59992304302122</v>
+        <v>17.66096383478592</v>
       </c>
       <c r="H21">
-        <v>13.246434818652</v>
+        <v>6.799216819358992</v>
       </c>
       <c r="I21">
-        <v>21.10864864835671</v>
+        <v>13.39939512240915</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>19.66096453341087</v>
+        <v>31.53942910773218</v>
       </c>
       <c r="L21">
-        <v>9.397353208807049</v>
+        <v>6.894683240916875</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.6058933072465</v>
+        <v>10.87012306626773</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.53685989207325</v>
+        <v>12.69180730014004</v>
       </c>
       <c r="D22">
-        <v>5.271223090037089</v>
+        <v>6.171965731942413</v>
       </c>
       <c r="E22">
-        <v>13.38336490405667</v>
+        <v>13.20994513771849</v>
       </c>
       <c r="F22">
-        <v>21.87719291123686</v>
+        <v>15.87860566642892</v>
       </c>
       <c r="G22">
-        <v>24.48981849868149</v>
+        <v>18.09293757674055</v>
       </c>
       <c r="H22">
-        <v>13.19571226275692</v>
+        <v>6.729777934038513</v>
       </c>
       <c r="I22">
-        <v>21.04745717536545</v>
+        <v>13.55613343925044</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.21635740219628</v>
+        <v>32.64115142052091</v>
       </c>
       <c r="L22">
-        <v>9.406011846400228</v>
+        <v>7.028990637908143</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.51749984501281</v>
+        <v>10.87864991104586</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.48161708891958</v>
+        <v>12.48259708068098</v>
       </c>
       <c r="D23">
-        <v>5.238028882819065</v>
+        <v>6.086514239414914</v>
       </c>
       <c r="E23">
-        <v>13.34326677609928</v>
+        <v>13.00672653730349</v>
       </c>
       <c r="F23">
-        <v>21.9065601302126</v>
+        <v>15.71134268574146</v>
       </c>
       <c r="G23">
-        <v>24.54751455031686</v>
+        <v>17.85775497865351</v>
       </c>
       <c r="H23">
-        <v>13.22255368080142</v>
+        <v>6.76581928083156</v>
       </c>
       <c r="I23">
-        <v>21.07959585780069</v>
+        <v>13.47035150535423</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.92199495454091</v>
+        <v>32.05751338001372</v>
       </c>
       <c r="L23">
-        <v>9.401265070172379</v>
+        <v>6.957224925867007</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.56418514085495</v>
+        <v>10.87137513027611</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.27307620315129</v>
+        <v>11.66654913019761</v>
       </c>
       <c r="D24">
-        <v>5.109706798357883</v>
+        <v>5.751916724913601</v>
       </c>
       <c r="E24">
-        <v>13.19486639022177</v>
+        <v>12.22153793253137</v>
       </c>
       <c r="F24">
-        <v>22.03284802944314</v>
+        <v>15.12978471790457</v>
       </c>
       <c r="G24">
-        <v>24.78934635434721</v>
+        <v>17.06855799783149</v>
       </c>
       <c r="H24">
-        <v>13.32926441814131</v>
+        <v>6.9237296591813</v>
       </c>
       <c r="I24">
-        <v>21.2127113280764</v>
+        <v>13.19139454651917</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.76226937349756</v>
+        <v>29.75064503450592</v>
       </c>
       <c r="L24">
-        <v>9.386053504616395</v>
+        <v>6.687380438153196</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>19.75177428475481</v>
+        <v>10.90149135568736</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>11.05064443711817</v>
+        <v>10.73731851361939</v>
       </c>
       <c r="D25">
-        <v>4.966193135954665</v>
+        <v>5.368242730183108</v>
       </c>
       <c r="E25">
-        <v>13.04283769355798</v>
+        <v>11.34385636334431</v>
       </c>
       <c r="F25">
-        <v>22.20083799355173</v>
+        <v>14.61135192890079</v>
       </c>
       <c r="G25">
-        <v>25.09896920387939</v>
+        <v>16.43025939880549</v>
       </c>
       <c r="H25">
-        <v>13.45514492787528</v>
+        <v>7.133937116193453</v>
       </c>
       <c r="I25">
-        <v>21.38040864037243</v>
+        <v>12.98286878303026</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.4184793243747</v>
+        <v>27.05408598695958</v>
       </c>
       <c r="L25">
-        <v>9.375607319470095</v>
+        <v>6.401383424677405</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>19.97694341371885</v>
+        <v>11.04311827729491</v>
       </c>
     </row>
   </sheetData>
